--- a/modelos/OBAPPA4451283/OBAPPA4451283_Sell Out_metricas.xlsx
+++ b/modelos/OBAPPA4451283/OBAPPA4451283_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,141 +473,101 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45017</v>
+        <v>45030</v>
       </c>
       <c r="B2" t="n">
-        <v>9.406902490387655</v>
+        <v>5.994490021523903</v>
       </c>
       <c r="C2" t="n">
-        <v>7.168830840738108</v>
+        <v>3.456370322902244</v>
       </c>
       <c r="D2" t="n">
-        <v>11.81776871257552</v>
+        <v>8.510007443411611</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45012</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45020</v>
+        <v>45035</v>
       </c>
       <c r="B3" t="n">
-        <v>9.872845924254829</v>
+        <v>9.33157512032885</v>
       </c>
       <c r="C3" t="n">
-        <v>7.377634687742663</v>
+        <v>6.864193131115196</v>
       </c>
       <c r="D3" t="n">
-        <v>12.02811716196453</v>
+        <v>11.70231569152284</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45019</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45030</v>
+        <v>45047</v>
       </c>
       <c r="B4" t="n">
-        <v>5.330957569820811</v>
+        <v>8.191203244119112</v>
       </c>
       <c r="C4" t="n">
-        <v>2.914251854311064</v>
+        <v>5.701016400225024</v>
       </c>
       <c r="D4" t="n">
-        <v>7.848485465839008</v>
+        <v>10.59406085476087</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45026</v>
+        <v>45040</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45035</v>
+        <v>45057</v>
       </c>
       <c r="B5" t="n">
-        <v>8.589313170134048</v>
+        <v>7.999258041502087</v>
       </c>
       <c r="C5" t="n">
-        <v>5.950406640720737</v>
+        <v>5.419722091085263</v>
       </c>
       <c r="D5" t="n">
-        <v>10.98417317572005</v>
+        <v>10.51972546898246</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45033</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="B6" t="n">
-        <v>8.551445907089265</v>
+        <v>10.74603583178533</v>
       </c>
       <c r="C6" t="n">
-        <v>5.931555871261245</v>
+        <v>7.875892602725528</v>
       </c>
       <c r="D6" t="n">
-        <v>11.24918886406824</v>
+        <v>13.38443839657123</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45057</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6.707207957570874</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.66453304324971</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9.302462946707191</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>45055</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B8" t="n">
-        <v>9.732357158986947</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.041854593823576</v>
-      </c>
-      <c r="D8" t="n">
-        <v>12.4435861720844</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -622,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,131 +634,79 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.391821064804052</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.179754662971947</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8345834190845314</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.07588386693662637</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.07588386693662637</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.08210715291721711</v>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>23.7446274015269</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.872845924254829</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.872845924254829</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9745691848509658</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9745691848509658</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.6552674517132097</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3.741361128328613</v>
+        <v>25.05513014462377</v>
       </c>
       <c r="C3" t="n">
-        <v>1.934259839920328</v>
+        <v>5.005509978476097</v>
       </c>
       <c r="D3" t="n">
-        <v>1.851739436147539</v>
+        <v>5.005509978476097</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1903761767366364</v>
+        <v>0.4550463616796451</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1903761767366364</v>
+        <v>0.4550463616796451</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2109632600672856</v>
+        <v>0.5890744555601852</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>32.13804207517197</v>
+        <v>8.777786926743524</v>
       </c>
       <c r="C4" t="n">
-        <v>5.669042430179189</v>
+        <v>2.962733016446727</v>
       </c>
       <c r="D4" t="n">
-        <v>5.669042430179189</v>
+        <v>2.777416293833107</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5153674936526536</v>
+        <v>0.2557018554831106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5153674936526536</v>
+        <v>0.2557018554831106</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6942694457372707</v>
+        <v>0.2770610687207061</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5.793179598234294</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.406902490387655</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.406902490387655</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3438432129125221</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3438432129125221</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.2934012062054726</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6.214436170025406</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.492877086826666</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.090455625948841</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1843762627038887</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1843762627038887</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.2068968804462301</v>
-      </c>
-      <c r="H6" t="n">
         <v>0.5</v>
       </c>
     </row>

--- a/modelos/OBAPPA4451283/OBAPPA4451283_Sell Out_metricas.xlsx
+++ b/modelos/OBAPPA4451283/OBAPPA4451283_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,101 +473,141 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45030</v>
+        <v>45020</v>
       </c>
       <c r="B2" t="n">
-        <v>5.994490021523903</v>
+        <v>9.872845924254836</v>
       </c>
       <c r="C2" t="n">
-        <v>3.456370322902244</v>
+        <v>7.563477538422275</v>
       </c>
       <c r="D2" t="n">
-        <v>8.510007443411611</v>
+        <v>12.14685515699695</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45026</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45035</v>
+        <v>45030</v>
       </c>
       <c r="B3" t="n">
-        <v>9.33157512032885</v>
+        <v>5.330957569820805</v>
       </c>
       <c r="C3" t="n">
-        <v>6.864193131115196</v>
+        <v>2.778613136394151</v>
       </c>
       <c r="D3" t="n">
-        <v>11.70231569152284</v>
+        <v>7.913428926478741</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45033</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45047</v>
+        <v>45035</v>
       </c>
       <c r="B4" t="n">
-        <v>8.191203244119112</v>
+        <v>8.589313170134067</v>
       </c>
       <c r="C4" t="n">
-        <v>5.701016400225024</v>
+        <v>6.085638431213994</v>
       </c>
       <c r="D4" t="n">
-        <v>10.59406085476087</v>
+        <v>11.19737934781495</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45040</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45057</v>
+        <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>7.999258041502087</v>
+        <v>8.420920279763914</v>
       </c>
       <c r="C5" t="n">
-        <v>5.419722091085263</v>
+        <v>5.906051538632378</v>
       </c>
       <c r="D5" t="n">
-        <v>10.51972546898246</v>
+        <v>10.86004792685356</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45055</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.896769169968677</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.356792388833522</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.53631931809895</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45057</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.204301055725394</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.596915212065837</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.710167946159091</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B6" t="n">
-        <v>10.74603583178533</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7.875892602725528</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.38443839657123</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="B8" t="n">
+        <v>9.383423021308849</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.733065810986224</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.03528244257309</v>
+      </c>
+      <c r="E8" t="n">
         <v>9</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F8" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -582,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,80 +674,106 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.391821064804052</v>
+        <v>23.74462740152697</v>
       </c>
       <c r="C2" t="n">
-        <v>1.179754662971947</v>
+        <v>4.872845924254836</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8345834190845314</v>
+        <v>4.872845924254836</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07588386693662637</v>
+        <v>0.9745691848509672</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07588386693662637</v>
+        <v>0.9745691848509672</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08210715291721711</v>
+        <v>0.6552674517132103</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>25.05513014462377</v>
+        <v>4.517972845078996</v>
       </c>
       <c r="C3" t="n">
-        <v>5.005509978476097</v>
+        <v>2.12555236234702</v>
       </c>
       <c r="D3" t="n">
-        <v>5.005509978476097</v>
+        <v>2.103192887070269</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4550463616796451</v>
+        <v>0.221807858101978</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4550463616796451</v>
+        <v>0.221807858101978</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5890744555601852</v>
+        <v>0.2494807055685035</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>32.13804207517203</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.669042430179195</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.669042430179195</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5153674936526541</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5153674936526541</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6942694457372716</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>8.777786926743524</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.962733016446727</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.777416293833107</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2557018554831106</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2557018554831106</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2770610687207061</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5</v>
+      <c r="B5" t="n">
+        <v>9.562070672763053</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.092259800334224</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.635858043701361</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3562408387928662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3419359025026102</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3213183977534739</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3333333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAPPA4451283/OBAPPA4451283_Sell Out_metricas.xlsx
+++ b/modelos/OBAPPA4451283/OBAPPA4451283_Sell Out_metricas.xlsx
@@ -473,79 +473,79 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45020</v>
+        <v>45017</v>
       </c>
       <c r="B2" t="n">
-        <v>9.872845924254836</v>
+        <v>9.406902490380689</v>
       </c>
       <c r="C2" t="n">
-        <v>7.563477538422275</v>
+        <v>7.051446499623368</v>
       </c>
       <c r="D2" t="n">
-        <v>12.14685515699695</v>
+        <v>11.88441085320984</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45019</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45030</v>
+        <v>45020</v>
       </c>
       <c r="B3" t="n">
-        <v>5.330957569820805</v>
+        <v>9.872845924254836</v>
       </c>
       <c r="C3" t="n">
-        <v>2.778613136394151</v>
+        <v>7.5382254162598</v>
       </c>
       <c r="D3" t="n">
-        <v>7.913428926478741</v>
+        <v>12.12816015538099</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45026</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45035</v>
+        <v>45030</v>
       </c>
       <c r="B4" t="n">
-        <v>8.589313170134067</v>
+        <v>5.330957569820805</v>
       </c>
       <c r="C4" t="n">
-        <v>6.085638431213994</v>
+        <v>2.879730362652505</v>
       </c>
       <c r="D4" t="n">
-        <v>11.19737934781495</v>
+        <v>7.688808516131451</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45033</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45040</v>
+        <v>45035</v>
       </c>
       <c r="B5" t="n">
-        <v>8.420920279763914</v>
+        <v>8.589313170134067</v>
       </c>
       <c r="C5" t="n">
-        <v>5.906051538632378</v>
+        <v>5.970128473374619</v>
       </c>
       <c r="D5" t="n">
-        <v>10.86004792685356</v>
+        <v>11.31911561157498</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45033</v>
@@ -556,13 +556,13 @@
         <v>45047</v>
       </c>
       <c r="B6" t="n">
-        <v>7.896769169968677</v>
+        <v>8.551445907089256</v>
       </c>
       <c r="C6" t="n">
-        <v>5.356792388833522</v>
+        <v>6.046055557068773</v>
       </c>
       <c r="D6" t="n">
-        <v>10.53631931809895</v>
+        <v>11.2547914491364</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
@@ -576,13 +576,13 @@
         <v>45057</v>
       </c>
       <c r="B7" t="n">
-        <v>6.204301055725394</v>
+        <v>6.707207957571529</v>
       </c>
       <c r="C7" t="n">
-        <v>3.596915212065837</v>
+        <v>4.232734429824182</v>
       </c>
       <c r="D7" t="n">
-        <v>8.710167946159091</v>
+        <v>9.304458748347846</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>45062</v>
       </c>
       <c r="B8" t="n">
-        <v>9.383423021308849</v>
+        <v>9.732357158987629</v>
       </c>
       <c r="C8" t="n">
-        <v>6.733065810986224</v>
+        <v>6.945221577989323</v>
       </c>
       <c r="D8" t="n">
-        <v>12.03528244257309</v>
+        <v>12.41711327011609</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -622,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,22 +703,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.517972845078996</v>
+        <v>3.741361128327718</v>
       </c>
       <c r="C3" t="n">
-        <v>2.12555236234702</v>
+        <v>1.934259839920097</v>
       </c>
       <c r="D3" t="n">
-        <v>2.103192887070269</v>
+        <v>1.851739436147202</v>
       </c>
       <c r="E3" t="n">
-        <v>0.221807858101978</v>
+        <v>0.1903761767365945</v>
       </c>
       <c r="F3" t="n">
-        <v>0.221807858101978</v>
+        <v>0.1903761767365945</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2494807055685035</v>
+        <v>0.2109632600672359</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -752,28 +752,54 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.793179598200765</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.406902490380689</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.406902490380689</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3438432129115271</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3438432129115271</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2934012062047481</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>9.562070672763053</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.092259800334224</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.635858043701361</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3562408387928662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3419359025026102</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3213183977534739</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.3333333333333334</v>
+      <c r="B6" t="n">
+        <v>6.214436170025937</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.492877086826772</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.090455625949186</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.184376262703927</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.184376262703927</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2068968804462656</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
